--- a/examples/vpcwebapp/xlsx/vars.xlsx
+++ b/examples/vpcwebapp/xlsx/vars.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/tabular-terraform/examples/vpcwebapp/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD44F2B-DF6A-904B-8396-EDFCAA8BCCA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78E20F3-045F-D940-BE80-57CBB5E3CFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="700" yWindow="2380" windowWidth="25600" windowHeight="14760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="63" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="154">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -272,36 +272,6 @@
     <t>outputs.tf</t>
   </si>
   <si>
-    <t>zone1-webappserver</t>
-  </si>
-  <si>
-    <t>zone2-webappserver</t>
-  </si>
-  <si>
-    <t>zone1-dbserver-master</t>
-  </si>
-  <si>
-    <t>zone2-dbserver-slave</t>
-  </si>
-  <si>
-    <t>zone1-VPN-peer</t>
-  </si>
-  <si>
-    <t>zone2-VPN-peer</t>
-  </si>
-  <si>
-    <t>zone1-ssh-webappserver</t>
-  </si>
-  <si>
-    <t>zone2-ssh-webappserver</t>
-  </si>
-  <si>
-    <t>zone1-ssh-dbserver</t>
-  </si>
-  <si>
-    <t>zone2-ssh-dbserver</t>
-  </si>
-  <si>
     <t>ibm_is_floating_ip.bastionserver-zone2-fip.address</t>
   </si>
   <si>
@@ -458,18 +428,6 @@
     <t>ibm_is_instance.webappserver-zone1[0].primary_network_interface[0].primary_ipv4_address</t>
   </si>
   <si>
-    <t>zone1-bastionserver</t>
-  </si>
-  <si>
-    <t>zone2-bastionserver</t>
-  </si>
-  <si>
-    <t>zone1-ssh-bastionserver</t>
-  </si>
-  <si>
-    <t>zone2-ssh-bastionserver</t>
-  </si>
-  <si>
     <t>"ansible-playbook -i inventory --ssh-extra-args='-J root@${ibm_is_floating_ip.bastionserver-zone1-fip.address}' site.yaml"</t>
   </si>
   <si>
@@ -482,7 +440,55 @@
     <t>app_name</t>
   </si>
   <si>
-    <t>ansible</t>
+    <t>ansible-bastion</t>
+  </si>
+  <si>
+    <t>ansible-vpn</t>
+  </si>
+  <si>
+    <t>"ansible-playbook -i inventory site.yaml"</t>
+  </si>
+  <si>
+    <t>master_db</t>
+  </si>
+  <si>
+    <t>slave_db</t>
+  </si>
+  <si>
+    <t>webappserver1</t>
+  </si>
+  <si>
+    <t>webappserver2</t>
+  </si>
+  <si>
+    <t>bastionserver1</t>
+  </si>
+  <si>
+    <t>bastionserver2</t>
+  </si>
+  <si>
+    <t>ssh-bastionserver1</t>
+  </si>
+  <si>
+    <t>ssh-webappserver1</t>
+  </si>
+  <si>
+    <t>ssh-bastionserver2</t>
+  </si>
+  <si>
+    <t>ssh-webappserver2</t>
+  </si>
+  <si>
+    <t>ssh-masterdb</t>
+  </si>
+  <si>
+    <t>ssh-slavedb</t>
+  </si>
+  <si>
+    <t>VPN-peer1</t>
+  </si>
+  <si>
+    <t>VPN-peer2</t>
   </si>
 </sst>
 </file>
@@ -655,9 +661,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA98B69F-4F8B-E84C-82FB-BF2069D2E6E3}" name="Table32103" displayName="Table32103" ref="A1:D23" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D23" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AA98B69F-4F8B-E84C-82FB-BF2069D2E6E3}" name="Table32103" displayName="Table32103" ref="A1:D27" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D27" xr:uid="{DC08D300-10E5-4A45-A724-480E99186CDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B27">
     <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="4">
@@ -958,49 +964,49 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1011,7 +1017,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1</v>
@@ -1020,12 +1026,12 @@
         <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -1034,7 +1040,7 @@
         <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1045,7 +1051,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
@@ -1054,12 +1060,12 @@
         <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>34</v>
@@ -1068,12 +1074,12 @@
         <v>48</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>35</v>
@@ -1082,7 +1088,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1093,7 +1099,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
@@ -1102,12 +1108,12 @@
         <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>37</v>
@@ -1116,12 +1122,12 @@
         <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -1130,7 +1136,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1141,7 +1147,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>39</v>
@@ -1150,12 +1156,12 @@
         <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
@@ -1164,12 +1170,12 @@
         <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -1178,7 +1184,7 @@
         <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,35 +1195,35 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>30</v>
@@ -1226,7 +1232,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1237,16 +1243,16 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,7 +1263,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
@@ -1266,7 +1272,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1277,7 +1283,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
@@ -1286,12 +1292,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -1300,12 +1306,12 @@
         <v>58</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>9</v>
@@ -1314,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1325,7 +1331,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
@@ -1334,12 +1340,12 @@
         <v>59</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
@@ -1348,12 +1354,12 @@
         <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>12</v>
@@ -1362,7 +1368,7 @@
         <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1373,7 +1379,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>13</v>
@@ -1382,12 +1388,12 @@
         <v>57</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>77</v>
@@ -1396,7 +1402,7 @@
         <v>62</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1407,7 +1413,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>14</v>
@@ -1416,12 +1422,12 @@
         <v>63</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>15</v>
@@ -1430,7 +1436,7 @@
         <v>64</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1441,7 +1447,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>32</v>
@@ -1450,12 +1456,12 @@
         <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>33</v>
@@ -1464,12 +1470,12 @@
         <v>65</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
@@ -1478,7 +1484,7 @@
         <v>66</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1530,12 +1536,12 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -1547,7 +1553,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>18</v>
@@ -1559,7 +1565,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
@@ -1583,7 +1589,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
@@ -1595,7 +1601,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
@@ -1607,7 +1613,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>23</v>
@@ -1619,7 +1625,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>24</v>
@@ -1631,7 +1637,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>25</v>
@@ -1643,7 +1649,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>26</v>
@@ -1679,9 +1685,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5402B7A3-8ED6-344D-8E9C-6F9906AB87F1}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1702,7 +1710,7 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,10 +1718,10 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1"/>
     </row>
@@ -1728,10 +1736,10 @@
         <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1"/>
     </row>
@@ -1740,23 +1748,17 @@
         <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1764,10 +1766,10 @@
         <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="D7" s="1"/>
     </row>
@@ -1776,29 +1778,29 @@
         <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1806,23 +1808,17 @@
         <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1830,10 +1826,10 @@
         <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1842,10 +1838,10 @@
         <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1854,29 +1850,29 @@
         <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,10 +1880,10 @@
         <v>80</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1896,7 +1892,7 @@
         <v>80</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>92</v>
@@ -1914,28 +1910,70 @@
         <v>80</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
